--- a/Bases de datos/dta_f.xlsx
+++ b/Bases de datos/dta_f.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\Proyectos\wbscrp_journal_macro\Bases de datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD3136D8-5CC3-44A0-97C3-D385998AD261}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78B36E00-0520-4F97-ABF0-CE8D6A1D2041}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -14061,12 +14061,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -14096,10 +14102,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -14443,8 +14453,8 @@
   <dimension ref="A1:F2324"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H2" sqref="H2"/>
+      <pane ySplit="1" topLeftCell="A786" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H810" sqref="H810"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -14454,7 +14464,7 @@
     <col min="3" max="3" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.140625" style="1"/>
-    <col min="6" max="6" width="122.42578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="135.85546875" style="1" customWidth="1"/>
     <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -30636,22 +30646,22 @@
       </c>
     </row>
     <row r="810" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A810" s="2">
+      <c r="A810" s="4">
         <v>856</v>
       </c>
-      <c r="B810" s="1" t="s">
+      <c r="B810" s="3" t="s">
         <v>776</v>
       </c>
-      <c r="C810" s="1" t="s">
+      <c r="C810" s="3" t="s">
         <v>2108</v>
       </c>
-      <c r="D810" s="1" t="s">
+      <c r="D810" s="3" t="s">
         <v>2182</v>
       </c>
-      <c r="E810" s="1" t="s">
+      <c r="E810" s="3" t="s">
         <v>2328</v>
       </c>
-      <c r="F810" s="1" t="s">
+      <c r="F810" s="3" t="s">
         <v>3170</v>
       </c>
     </row>
